--- a/Models/Model_5_marbel/ModelData.xlsx
+++ b/Models/Model_5_marbel/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Water_S2_BC" sheetId="13" r:id="rId12"/>
     <sheet name="Optimize" sheetId="14" r:id="rId13"/>
     <sheet name="Options" sheetId="15" r:id="rId14"/>
+    <sheet name="Well_Params" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>ROCK</t>
   </si>
@@ -274,21 +275,9 @@
     <t>co2_prod1</t>
   </si>
   <si>
-    <t>monitor_inj1</t>
-  </si>
-  <si>
-    <t>monitor_prod1</t>
-  </si>
-  <si>
     <t>co2_prod2</t>
   </si>
   <si>
-    <t>monitor_prod2</t>
-  </si>
-  <si>
-    <t>monitor_prod3</t>
-  </si>
-  <si>
     <t>co2_prod3</t>
   </si>
   <si>
@@ -313,18 +302,6 @@
     <t>cont.timestep_interval</t>
   </si>
   <si>
-    <t>SK2D</t>
-  </si>
-  <si>
-    <t>SK1D</t>
-  </si>
-  <si>
-    <t>SK5D</t>
-  </si>
-  <si>
-    <t>APO1D</t>
-  </si>
-  <si>
     <t>optimize</t>
   </si>
   <si>
@@ -343,9 +320,6 @@
     <t>method</t>
   </si>
   <si>
-    <t>L-BFGS-B</t>
-  </si>
-  <si>
     <t>eps</t>
   </si>
   <si>
@@ -356,6 +330,27 @@
   </si>
   <si>
     <t>maxiter</t>
+  </si>
+  <si>
+    <t>SLSQP</t>
+  </si>
+  <si>
+    <t>min_elev</t>
+  </si>
+  <si>
+    <t>max_elev</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>well_diameter</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>inj_temp</t>
   </si>
 </sst>
 </file>
@@ -692,7 +687,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +717,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,7 +725,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,10 +752,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +770,7 @@
     <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -813,10 +808,10 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -839,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -862,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -872,9 +867,13 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="str">
-        <f>hist!C2</f>
-        <v>SK2D</v>
+      <c r="E4">
+        <f>hist!D2</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F4">
+        <f>hist!E2</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="G4">
         <f>hist!F2</f>
@@ -882,7 +881,7 @@
       </c>
       <c r="H4" s="4">
         <f>-L4*1000000000/(365.25*24*3600)</f>
-        <v>-22.724985960000001</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I4" s="3">
         <v>-30</v>
@@ -895,13 +894,13 @@
       </c>
       <c r="L4" s="4">
         <f>SUM(L5:L7)</f>
-        <v>0.71714601693129598</v>
+        <v>0.792339917679864</v>
       </c>
       <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -911,9 +910,13 @@
       <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" t="str">
-        <f>hist!C3</f>
-        <v>SK1D</v>
+      <c r="E5">
+        <f>hist!D3</f>
+        <v>525599.83700000006</v>
+      </c>
+      <c r="F5">
+        <f>hist!E3</f>
+        <v>774290.10699999996</v>
       </c>
       <c r="G5">
         <f>hist!F3</f>
@@ -921,7 +924,7 @@
       </c>
       <c r="H5" s="4">
         <f>L5*1000000000/(365.25*24*3600)</f>
-        <v>8.3731007200000001</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -934,21 +937,18 @@
       </c>
       <c r="L5" s="4">
         <f>O5/1000000000*(365.25*24*3600)</f>
-        <v>0.264234963281472</v>
+        <v>0.28487514465935998</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.3731007200000001</v>
-      </c>
-      <c r="P5">
-        <v>6.5935869900000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.0271486000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -956,9 +956,13 @@
       <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="str">
-        <f>hist!C4</f>
-        <v>SK5D</v>
+      <c r="E6">
+        <f>hist!D4</f>
+        <v>525578.95400000003</v>
+      </c>
+      <c r="F6">
+        <f>hist!E4</f>
+        <v>774752.152</v>
       </c>
       <c r="G6">
         <f>hist!F4</f>
@@ -966,7 +970,7 @@
       </c>
       <c r="H6" s="4">
         <f>L6*1000000000/(365.25*24*3600)</f>
-        <v>8.4276566400000004</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -979,21 +983,18 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ref="L6:L7" si="0">O6/1000000000*(365.25*24*3600)</f>
-        <v>0.26595661718246399</v>
+        <v>0.28575744150743998</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.4276566400000004</v>
-      </c>
-      <c r="P6">
-        <v>6.5314241199999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>9.0551069000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>33</v>
@@ -1001,9 +1002,13 @@
       <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="str">
-        <f>hist!C5</f>
-        <v>APO1D</v>
+      <c r="E7">
+        <f>hist!D5</f>
+        <v>525041.20600000001</v>
+      </c>
+      <c r="F7">
+        <f>hist!E5</f>
+        <v>774838.29599999997</v>
       </c>
       <c r="G7">
         <f>hist!F5</f>
@@ -1011,7 +1016,7 @@
       </c>
       <c r="H7" s="4">
         <f>L7*1000000000/(365.25*24*3600)</f>
-        <v>5.9242285999999993</v>
+        <v>7.0254813900000013</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1024,34 +1029,31 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>0.18695443646735999</v>
+        <v>0.22170733151306402</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>5.9242286000000002</v>
-      </c>
-      <c r="P7">
-        <v>6.6557796099999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7.0254813900000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1066,7 +1068,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1116,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1122,12 +1124,15 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="str">
-        <f>CO2_S1_BC!D4</f>
-        <v>SK2D</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>CO2_S1_BC!E4</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F2" s="3">
+        <f>CO2_S1_BC!F4</f>
+        <v>774425.84900000005</v>
+      </c>
       <c r="G2" s="3">
         <f>CO2_S1_BC!G4</f>
         <v>750</v>
@@ -1157,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,7 +1208,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1211,9 +1216,13 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="str">
-        <f>CO2_S2_BC!D4</f>
-        <v>SK2D</v>
+      <c r="E2">
+        <f>CO2_S2_BC!E4</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F2">
+        <f>CO2_S2_BC!F4</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="G2">
         <f>CO2_S2_BC!G4</f>
@@ -1221,7 +1230,7 @@
       </c>
       <c r="H2">
         <f>CO2_S2_BC!H4</f>
-        <v>-22.724985960000001</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I2">
         <f>CO2_S2_BC!I4</f>
@@ -1232,12 +1241,12 @@
       </c>
       <c r="L2" s="4">
         <f>CO2_S2_BC!L4</f>
-        <v>0.71714601693129598</v>
+        <v>0.792339917679864</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -1245,9 +1254,13 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="str">
-        <f>CO2_S2_BC!D5</f>
-        <v>SK1D</v>
+      <c r="E3">
+        <f>CO2_S2_BC!E5</f>
+        <v>525599.83700000006</v>
+      </c>
+      <c r="F3">
+        <f>CO2_S2_BC!F5</f>
+        <v>774290.10699999996</v>
       </c>
       <c r="G3">
         <f>CO2_S2_BC!G5</f>
@@ -1255,7 +1268,7 @@
       </c>
       <c r="H3">
         <f>CO2_S2_BC!H5</f>
-        <v>8.3731007200000001</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I3">
         <f>CO2_S2_BC!I5</f>
@@ -1266,12 +1279,12 @@
       </c>
       <c r="L3" s="4">
         <f>CO2_S2_BC!L5</f>
-        <v>0.264234963281472</v>
+        <v>0.28487514465935998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1279,9 +1292,13 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="str">
-        <f>CO2_S2_BC!D6</f>
-        <v>SK5D</v>
+      <c r="E4">
+        <f>CO2_S2_BC!E6</f>
+        <v>525578.95400000003</v>
+      </c>
+      <c r="F4">
+        <f>CO2_S2_BC!F6</f>
+        <v>774752.152</v>
       </c>
       <c r="G4">
         <f>CO2_S2_BC!G6</f>
@@ -1289,7 +1306,7 @@
       </c>
       <c r="H4">
         <f>CO2_S2_BC!H6</f>
-        <v>8.4276566400000004</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I4">
         <f>CO2_S2_BC!I6</f>
@@ -1300,12 +1317,12 @@
       </c>
       <c r="L4" s="4">
         <f>CO2_S2_BC!L6</f>
-        <v>0.26595661718246399</v>
+        <v>0.28575744150743998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -1313,9 +1330,13 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="str">
-        <f>CO2_S2_BC!D7</f>
-        <v>APO1D</v>
+      <c r="E5">
+        <f>CO2_S2_BC!E7</f>
+        <v>525041.20600000001</v>
+      </c>
+      <c r="F5">
+        <f>CO2_S2_BC!F7</f>
+        <v>774838.29599999997</v>
       </c>
       <c r="G5">
         <f>CO2_S2_BC!G7</f>
@@ -1323,7 +1344,7 @@
       </c>
       <c r="H5">
         <f>CO2_S2_BC!H7</f>
-        <v>5.9242285999999993</v>
+        <v>7.0254813900000013</v>
       </c>
       <c r="I5">
         <f>CO2_S2_BC!I7</f>
@@ -1334,7 +1355,7 @@
       </c>
       <c r="L5" s="4">
         <f>CO2_S2_BC!L7</f>
-        <v>0.18695443646735999</v>
+        <v>0.22170733151306402</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1368,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1359,21 +1380,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1387,7 +1408,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1401,7 +1422,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1422,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,26 +1459,100 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1843,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B2" sqref="B2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2359,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2654,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <f>B4</f>
@@ -2568,7 +2663,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2652,7 +2747,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2661,7 +2756,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2746,7 +2841,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2755,7 +2850,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2771,7 +2866,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,7 +2876,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2801,107 +2896,127 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>93</v>
+      <c r="D2">
+        <f>K2</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="E2">
+        <f>L2</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="F2" s="3">
         <v>750</v>
       </c>
       <c r="I2">
-        <v>125.21687</v>
+        <v>125.23125</v>
       </c>
       <c r="J2">
-        <v>7.0235099999999999</v>
+        <v>7.00319</v>
       </c>
       <c r="K2">
-        <v>523791.04599999997</v>
+        <v>525380.56099999999</v>
       </c>
       <c r="L2">
-        <v>776672.77300000004</v>
+        <v>774425.84900000005</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
-        <v>94</v>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">K3</f>
+        <v>525599.83700000006</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">L3</f>
+        <v>774290.10699999996</v>
       </c>
       <c r="F3" s="3">
         <v>750</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3">
-        <v>125.21862</v>
+        <v>125.23323000000001</v>
       </c>
       <c r="J3">
-        <v>7.02644</v>
+        <v>7.0019600000000004</v>
       </c>
       <c r="K3">
-        <v>523984.217</v>
+        <v>525599.83700000006</v>
       </c>
       <c r="L3">
-        <v>776996.46600000001</v>
+        <v>774290.10699999996</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
-        <v>95</v>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>525578.95400000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>774752.152</v>
       </c>
       <c r="F4" s="3">
         <v>750</v>
       </c>
       <c r="I4">
-        <v>125.22084</v>
+        <v>125.23304</v>
       </c>
       <c r="J4">
-        <v>7.0212399999999997</v>
+        <v>7.0061400000000003</v>
       </c>
       <c r="K4">
-        <v>524229.59700000001</v>
+        <v>525578.95400000003</v>
       </c>
       <c r="L4">
-        <v>776422.17200000002</v>
+        <v>774752.152</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
-        <v>96</v>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>525041.20600000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>774838.29599999997</v>
       </c>
       <c r="F5" s="3">
         <v>750</v>
       </c>
       <c r="I5">
-        <v>125.22254</v>
+        <v>125.22817999999999</v>
       </c>
       <c r="J5">
-        <v>7.0242199999999997</v>
+        <v>7.00692</v>
       </c>
       <c r="K5">
-        <v>524417.54799999995</v>
+        <v>525041.20600000001</v>
       </c>
       <c r="L5">
-        <v>776751.08600000001</v>
+        <v>774838.29599999997</v>
       </c>
     </row>
   </sheetData>
@@ -2914,7 +3029,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,7 +3081,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3025,9 +3140,13 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="str">
-        <f>hist!C2</f>
-        <v>SK2D</v>
+      <c r="E4">
+        <f>hist!D2</f>
+        <v>525380.56099999999</v>
+      </c>
+      <c r="F4">
+        <f>hist!E2</f>
+        <v>774425.84900000005</v>
       </c>
       <c r="G4">
         <f>hist!F2</f>

--- a/Models/Model_5_marbel/ModelData.xlsx
+++ b/Models/Model_5_marbel/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="714" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -403,7 +403,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
@@ -1842,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1943,7 @@
       <c r="C4" s="7">
         <v>5.9999999999999997E-15</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>5E-15</v>
       </c>
       <c r="E4" s="2">
